--- a/GenericProfessionalSetup.xlsx
+++ b/GenericProfessionalSetup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="6000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="Production style code setup" sheetId="1" r:id="rId1"/>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
